--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t xml:space="preserve">《貝爾蒙特報告書》可規範何種學術領域的研究人員？</t>
   </si>
@@ -1660,10 +1660,10 @@
     <t xml:space="preserve">小華是一位主修管理學的研究生，請先回顧下方關於他的碩士論文研究歷程，再思考他可能涉及何種類型的不當研究行為</t>
   </si>
   <si>
-    <t xml:space="preserve">原則上，被列名為論文作者不會對個人產生何種特殊影響</t>
-  </si>
-  <si>
-    <t xml:space="preserve">從《紐倫堡宣言》、《赫爾辛基宣言》和《貝爾蒙特報告書》中</t>
+    <t xml:space="preserve">原則上，被列名為論文作者不會對個人產生何種特殊影響？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">從《紐倫堡宣言》、《赫爾辛基宣言》和《貝爾蒙特報告書》中，可歸納出哪些研究倫理的基本原則？</t>
   </si>
   <si>
     <t xml:space="preserve">以下何者符合《貝爾蒙特報告書》中「正義」原則的研究行為</t>
@@ -1672,104 +1672,12 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">「改寫」（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft jhenhei"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">paraphrasing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）與「摘寫」（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft jhenhei"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">summarizing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）的最大不同在於哪裡</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">下列關於「抄襲」與「自我抄襲」的敘述</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效處理利益衝突</t>
-  </si>
-  <si>
-    <t xml:space="preserve">若要引述別人的論點或文章</t>
-  </si>
-  <si>
-    <t xml:space="preserve">多多正準備進行動物實驗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">關於資料蒐集程序</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「宮崎駿強調 “對動畫依舊抱持極大熱情，直到我死之前，都會繼續從事創作。”」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下列哪些行為或事物受《著作權法》保護？ a.舞蹈動作 b.情書 c.構想 d.國小教科書 e.標點符號 f.臺中市政府發布之命令</t>
-  </si>
-  <si>
-    <t xml:space="preserve">若一位心理學研究所的碩士新生，想在執行研究前先了解心理學研究的倫理規範，他可以由哪方面著手取得最核心的規範事項？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《個資法》規範的對象為何？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著作權法所保護的著作類型有多種，下列何種著作的類型與其他三者不同？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">某研究者以國小中年級的學生為受試對象，在問卷內容中皆標註注音符號。這情形說明研究者有顧及到知情同意的何種要素？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">某中文系學生的專題論文為了探討作詞的用詞遣字，在引用時將所有方文山作詞的歌曲都列出來。請問此學生的引用是否在合理範圍內？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陳老師是學校的輔導老師，其透過監視器觀察小南獨自在遊戲治療室的活動情形，請問陳老師是否觸犯到刑法？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不同的研究情境會有不同的利益衝突情境。請問下列何種情境比較沒有涉及利益衝突不當管理的問題？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小美是一位醫學工程領域的博士生，她的指導教授要求她必須協助三位碩士生進行他們的論文研究。半年前，有一位碩士生的實驗一直失敗，因此尋求小美的協助。小美在經過了解後發現，原來該碩士生一直沒有正確校正一個重要的實驗儀器，才會使得實驗無法進行；因此她花了些時間手動校正儀器，並順利排除了問題。近日，這位碩士生不但通過論文口試，也主筆把碩士論文改寫成一篇研討會論文，準備投稿到國外的研討會去發表。此時他寫信詢問小美，希望可以將她列名為自己和指導教授以外的第三位論文作者，以感謝她當初在儀器校正上的協助。請問依據一般研究倫理的規範，小美應該答應這個邀請嗎？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">身為學術界的一員，下列哪些行為是可以避免自我抄襲的有效作法？</t>
     </r>
     <r>
       <rPr>
@@ -1779,17 +1687,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(a) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">同一筆研究資料，勿再重複發表論文 </t>
+      <t xml:space="preserve">paraphrasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）與「摘寫」（</t>
     </r>
     <r>
       <rPr>
@@ -1799,17 +1707,71 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(b) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">將一筆資料擴充收新的資料後，再次寫成研究論文投稿 </t>
+      <t xml:space="preserve">summarizing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）的最大不同在於哪裡？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">下列關於「抄襲」與「自我抄襲」的敘述，何者錯誤？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效處理利益衝突</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若要引述別人的論點或文章，下列何者的呈現方式較不恰當？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多多正準備進行動物實驗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">關於資料蒐集程序，下列何者為非？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下列哪些行為或事物受《著作權法》保護？ a.舞蹈動作 b.情書 c.構想 d.國小教科書 e.標點符號 f.臺中市政府發布之命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若一位心理學研究所的碩士新生，想在執行研究前先了解心理學研究的倫理規範，他可以由哪方面著手取得最核心的規範事項？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《個資法》規範的對象為何？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">著作權法所保護的著作類型有多種，下列何種著作的類型與其他三者不同？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">某研究者以國小中年級的學生為受試對象，在問卷內容中皆標註注音符號。這情形說明研究者有顧及到知情同意的何種要素？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">某中文系學生的專題論文為了探討作詞的用詞遣字，在引用時將所有方文山作詞的歌曲都列出來。請問此學生的引用是否在合理範圍內？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陳老師是學校的輔導老師，其透過監視器觀察小南獨自在遊戲治療室的活動情形，請問陳老師是否觸犯到刑法？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不同的研究情境會有不同的利益衝突情境。請問下列何種情境比較沒有涉及利益衝突不當管理的問題？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小美是一位醫學工程領域的博士生，她的指導教授要求她必須協助三位碩士生進行他們的論文研究。半年前，有一位碩士生的實驗一直失敗，因此尋求小美的協助。小美在經過了解後發現，原來該碩士生一直沒有正確校正一個重要的實驗儀器，才會使得實驗無法進行；因此她花了些時間手動校正儀器，並順利排除了問題。近日，這位碩士生不但通過論文口試，也主筆把碩士論文改寫成一篇研討會論文，準備投稿到國外的研討會去發表。此時他寫信詢問小美，希望可以將她列名為自己和指導教授以外的第三位論文作者，以感謝她當初在儀器校正上的協助。請問依據一般研究倫理的規範，小美應該答應這個邀請嗎？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">身為學術界的一員，下列哪些行為是可以避免自我抄襲的有效作法？</t>
     </r>
     <r>
       <rPr>
@@ -1819,17 +1781,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(c) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">避免將同一筆資料修改詮釋後，再次寫成研究論文投稿 </t>
+      <t xml:space="preserve">(a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">同一筆研究資料，勿再重複發表論文 </t>
     </r>
     <r>
       <rPr>
@@ -1839,17 +1801,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(d) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">善用引述、改寫和摘寫等方法重新處理自己曾經撰寫過的文字，並清楚註明出處 </t>
+      <t xml:space="preserve">(b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">將一筆資料擴充收新的資料後，再次寫成研究論文投稿 </t>
     </r>
     <r>
       <rPr>
@@ -1859,50 +1821,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(e) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">把自己於某已出版論文中製作的圖或表，重新原封不動地使用於另一篇文章</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">若小花的媽媽在小花不在家時拆閱快樂國小寄給小花的入學通知單，請問小花的媽媽是否侵犯到小花的隱私權？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">依《個資法》規定，當事人可向蒐集其個資的單位要求數種權利，下列何者為非？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">請問下列何人並沒有做到妥善的利益衝突管理？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">被研究者應被平等的對待與選擇，其揭示何種研究倫理？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通常學術研究中，除了主筆寫作論文的人之外，下列誰最有資格列為共同作者？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論文作者有多位時，通常是依什麼為排序原則？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在「受試者保護的原則和作法」單元中所提及的梅毒實驗事件，涉及許多研究倫理議題，若僅單看知情同意的部分，該事件的研究者不符合何種要素？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">小究是一位運動生理學領域的博士生，他最近正在規劃一個體重控制的研究，預計招募一些</t>
+      <t xml:space="preserve">(c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">避免將同一筆資料修改詮釋後，再次寫成研究論文投稿 </t>
     </r>
     <r>
       <rPr>
@@ -1912,17 +1841,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">至</t>
+      <t xml:space="preserve">(d) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">善用引述、改寫和摘寫等方法重新處理自己曾經撰寫過的文字，並清楚註明出處 </t>
     </r>
     <r>
       <rPr>
@@ -1932,17 +1861,50 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲、體重過胖，且無特殊疾病的人士參與實驗。希望在實驗過程中，透過飲食控制、定期運動及社會支持等介入，能達到減重及減脂的目的。請問下列哪些流程是小究該執行的，而執行的流程又該為何？</t>
+      <t xml:space="preserve">(e) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">把自己於某已出版論文中製作的圖或表，重新原封不動地使用於另一篇文章</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">若小花的媽媽在小花不在家時拆閱快樂國小寄給小花的入學通知單，請問小花的媽媽是否侵犯到小花的隱私權？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依《個資法》規定，當事人可向蒐集其個資的單位要求數種權利，下列何者為非？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請問下列何人並沒有做到妥善的利益衝突管理？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被研究者應被平等的對待與選擇，其揭示何種研究倫理？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通常學術研究中，除了主筆寫作論文的人之外，下列誰最有資格列為共同作者？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">論文作者有多位時，通常是依什麼為排序原則？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在「受試者保護的原則和作法」單元中所提及的梅毒實驗事件，涉及許多研究倫理議題，若僅單看知情同意的部分，該事件的研究者不符合何種要素？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">小究是一位運動生理學領域的博士生，他最近正在規劃一個體重控制的研究，預計招募一些</t>
     </r>
     <r>
       <rPr>
@@ -1952,17 +1914,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">正式招募受試者，並排除不適合的志願者 </t>
+      <t xml:space="preserve">35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">至</t>
     </r>
     <r>
       <rPr>
@@ -1972,17 +1934,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">規劃研究企劃書，並妥善安排保護受試者的機制 </t>
+      <t xml:space="preserve">50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">歲、體重過胖，且無特殊疾病的人士參與實驗。希望在實驗過程中，透過飲食控制、定期運動及社會支持等介入，能達到減重及減脂的目的。請問下列哪些流程是小究該執行的，而執行的流程又該為何？</t>
     </r>
     <r>
       <rPr>
@@ -1992,17 +1954,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">將研究計畫交給校內的機構審查委員會接受倫理審查 </t>
+      <t xml:space="preserve">(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">正式招募受試者，並排除不適合的志願者 </t>
     </r>
     <r>
       <rPr>
@@ -2012,17 +1974,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">在實驗進行階段，定期追蹤每位受試者的生心理狀態 </t>
+      <t xml:space="preserve">(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">規劃研究企劃書，並妥善安排保護受試者的機制 </t>
     </r>
     <r>
       <rPr>
@@ -2032,17 +1994,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">撰寫研究論文，且不在報告中提及任何可能揭露受試者身分的資訊 </t>
+      <t xml:space="preserve">(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">將研究計畫交給校內的機構審查委員會接受倫理審查 </t>
     </r>
     <r>
       <rPr>
@@ -2052,29 +2014,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">對於減重狀況不佳或生心理狀態異常者，建議他尋求正規醫療或輔導的介入</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">依照美國心理學會（</t>
+      <t xml:space="preserve">(4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">在實驗進行階段，定期追蹤每位受試者的生心理狀態 </t>
     </r>
     <r>
       <rPr>
@@ -2084,32 +2034,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">American Psychological Association</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）的論文寫作格式規定，論文中若要呈現受訪者的原始回答內容，以下敘述何者正確？</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">下列何者研究行為沒有遵守「尊重人權與人類尊嚴」的原則？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">下列何種人屬於「易受傷害族群」？ </t>
+      <t xml:space="preserve">(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">撰寫研究論文，且不在報告中提及任何可能揭露受試者身分的資訊 </t>
     </r>
     <r>
       <rPr>
@@ -2119,17 +2054,29 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">未成年人 </t>
+      <t xml:space="preserve">(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">對於減重狀況不佳或生心理狀態異常者，建議他尋求正規醫療或輔導的介入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">依照美國心理學會（</t>
     </r>
     <r>
       <rPr>
@@ -2139,17 +2086,32 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">學生 </t>
+      <t xml:space="preserve">American Psychological Association</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）的論文寫作格式規定，論文中若要呈現受訪者的原始回答內容，以下敘述何者正確？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">下列何者研究行為沒有遵守「尊重人權與人類尊嚴」的原則？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">下列何種人屬於「易受傷害族群」？ </t>
     </r>
     <r>
       <rPr>
@@ -2159,17 +2121,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">軍人 </t>
+      <t xml:space="preserve">a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">未成年人 </t>
     </r>
     <r>
       <rPr>
@@ -2179,17 +2141,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">病患 </t>
+      <t xml:space="preserve">b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">學生 </t>
     </r>
     <r>
       <rPr>
@@ -2199,17 +2161,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">遊民 </t>
+      <t xml:space="preserve">c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">軍人 </t>
     </r>
     <r>
       <rPr>
@@ -2219,35 +2181,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">老人</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">根據「不當研究行為的定義」單元所述，下列何者非不當研究行為？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">針對各研究領域和學術期刊間訂立寫作格式規範和投稿規範的敘述，下列何者為非？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">《個資法》規範的內容包括對個人資料的何種行為？ </t>
+      <t xml:space="preserve">d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">病患 </t>
     </r>
     <r>
       <rPr>
@@ -2257,17 +2201,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">利用 </t>
+      <t xml:space="preserve">e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">遊民 </t>
     </r>
     <r>
       <rPr>
@@ -2277,17 +2221,35 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">處理 </t>
+      <t xml:space="preserve">f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">老人</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">根據「不當研究行為的定義」單元所述，下列何者非不當研究行為？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">針對各研究領域和學術期刊間訂立寫作格式規範和投稿規範的敘述，下列何者為非？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">《個資法》規範的內容包括對個人資料的何種行為？ </t>
     </r>
     <r>
       <rPr>
@@ -2297,17 +2259,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">蒐集 </t>
+      <t xml:space="preserve">a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">利用 </t>
     </r>
     <r>
       <rPr>
@@ -2317,17 +2279,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">d.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">翻譯 </t>
+      <t xml:space="preserve">b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">處理 </t>
     </r>
     <r>
       <rPr>
@@ -2337,29 +2299,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">e.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">改作 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">小碩正在撰寫跟網路教學相關的論文，請問下列何者的文句是小碩使用「引述（</t>
+      <t xml:space="preserve">c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">蒐集 </t>
     </r>
     <r>
       <rPr>
@@ -2369,46 +2319,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">quoting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）」的寫作技巧？</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">下列何者對「篡改」資料的敘述有誤？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下列對於師生間的掛名原則，何者為非？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">關於利益衝突管理之內涵，下列何者錯誤？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小妍想要將自己的研究成果寫成期刊論文投稿，下列何者為避免自我抄襲的有效辦法？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在不同的專業領域通常有不同的學術引用格式規範，下列何者引用格式可能最不完整？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">依學術常規而論，請將下列的作者人選依工作項目排序作者定位。大雄：協助資料蒐集與統計分析 靜香：負責撰寫初稿、實驗設計與結果分析解釋 小夫：負責主持及指導研究工作 胖虎：協助鍵入研究資料</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">下列對改寫（</t>
+      <t xml:space="preserve">d.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">翻譯 </t>
     </r>
     <r>
       <rPr>
@@ -2418,6 +2339,88 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">e.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">改作 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">小碩正在撰寫跟網路教學相關的論文，請問下列何者的文句是小碩使用「引述（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">quoting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）」的寫作技巧？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">下列何者對「篡改」資料的敘述有誤？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下列對於師生間的掛名原則，何者為非？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">關於利益衝突管理之內涵，下列何者錯誤？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小妍想要將自己的研究成果寫成期刊論文投稿，下列何者為避免自我抄襲的有效辦法？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在不同的專業領域通常有不同的學術引用格式規範，下列何者引用格式可能最不完整？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依學術常規而論，請將下列的作者人選依工作項目排序作者定位。大雄：協助資料蒐集與統計分析 靜香：負責撰寫初稿、實驗設計與結果分析解釋 小夫：負責主持及指導研究工作 胖虎：協助鍵入研究資料</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">下列對改寫（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">paraphrasing</t>
     </r>
     <r>
@@ -2426,6 +2429,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）的寫作技巧，何者有誤？</t>
     </r>
@@ -2438,6 +2442,54 @@
   </si>
   <si>
     <t xml:space="preserve">下列對「捏造」資料的敘述何者有誤？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小美媽媽趁小美去上學時，進到小美的房間進行打掃，請問小美媽媽是否侵犯到小美的隱私權？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小華是一位主修管理學的研究生，請先回顧下方關於他的碩士論文研究歷程，再思考他可能涉及何種類型的不當研究行為：在研究初期，小華先使用問卷調查法蒐集資料，並利用專業的統計軟體去分析數據。但由於分析的結果不理想，無法支持預期的研究假設，於是他在進行研究結果的製表時，決定刪除及修改了一些可能會影響結果的數據，使表格中的資料能呈現他預期中的結果。一學期之後，小華順利完成了碩士論文，並通過口試取得碩士學位。又過了半年，小華依據論文口試委員的指導及建議，使用了高階的統計方法去分析之前的問卷調查資料；這次他並未修改任何原始數據，且依分析結果重新撰寫了一篇全新的論文，並成功獲國內某學術研討會的發表機會。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下列何者不是《貝爾蒙特報告書》所提到之研究過程中必須遵循的基本原則？ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">「宮崎駿強調 “對動畫依舊抱持極大熱情，直到我死之前，都會繼續從事創作。”」引號內的文句是否為正確的引述？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多多正準備進行動物實驗，他需注意哪些研究行為的倫理守則？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以下何者符合《貝爾蒙特報告書》中「正義」原則的研究行為？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二年前，小花還是一位碩士生，她透過網路問卷調查的方式蒐集研究資料，並在問卷結束前請參與作答的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">535 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">位受試者提供個人真實姓名、地址、電話及電郵信箱，以寄送回饋禮品給他們。小花在蒐集這些資料前，有先聲明這些資料的用途及保存方式，並強調這些資料僅供此次禮品寄送之用。此外填答者可以自主決定是否提供資料；僅有同意並簽署線上同意聲明文件者，小花才會使用他們的地址寄送禮品。後來小花畢業了，又繼續在同一間學校的博士班就讀。有一次為了所上學術活動的需要，她調出了過去透過問卷調查而蒐集來的地址，並以系所的名義寄發活動的邀請函給這些過去的研究參與者。請問小花的作法是否有違反我國《個人資料保護法》的疑慮？</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2447,7 +2499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2520,12 +2572,6 @@
       <sz val="12"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Microsoft jhenhei"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2644,11 +2690,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2660,11 +2706,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2745,19 +2791,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z143"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D143" activeCellId="0" sqref="D143"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="4.21481481481482"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="137.585185185185"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.54444444444444"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="148.459259259259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.84074074074074"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.74074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.1296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,17 +3290,13 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
@@ -5120,14 +5162,10 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
-        <v>1</v>
-      </c>
+    <row r="74" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="n">
         <v>4</v>
       </c>
@@ -5445,12 +5483,16 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D84" s="2"/>
+      <c r="A84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="E84" s="3" t="s">
         <v>84</v>
       </c>
@@ -5862,14 +5904,14 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F97" s="4"/>
@@ -5894,18 +5936,14 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E98" s="9" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F98" s="4"/>
@@ -5962,14 +6000,14 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="6" t="s">
         <v>100</v>
       </c>
       <c r="F100" s="4"/>
@@ -6030,14 +6068,14 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="6" t="s">
         <v>101</v>
       </c>
       <c r="F102" s="4"/>
@@ -6098,14 +6136,14 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F104" s="4"/>
@@ -6164,14 +6202,14 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="6" t="s">
         <v>105</v>
       </c>
       <c r="F106" s="4"/>
@@ -6203,7 +6241,7 @@
         <v>3</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F107" s="4"/>
@@ -6235,7 +6273,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="11" t="s">
         <v>107</v>
       </c>
       <c r="F108" s="4"/>
@@ -6261,12 +6299,12 @@
       <c r="Z108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="E109" s="11" t="s">
         <v>108</v>
       </c>
@@ -6293,13 +6331,13 @@
       <c r="Z109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12"/>
+      <c r="A110" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E110" s="11" t="s">
+      <c r="D110" s="2"/>
+      <c r="E110" s="10" t="s">
         <v>109</v>
       </c>
       <c r="F110" s="4"/>
@@ -6331,7 +6369,7 @@
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F111" s="4"/>
@@ -6357,12 +6395,16 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="E112" s="11" t="s">
         <v>111</v>
       </c>
@@ -6399,7 +6441,7 @@
       <c r="D113" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F113" s="4"/>
@@ -6426,12 +6468,8 @@
     </row>
     <row r="114" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="12"/>
-      <c r="B114" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="2" t="n">
         <v>4</v>
       </c>
@@ -6460,14 +6498,14 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="11" t="s">
         <v>114</v>
       </c>
       <c r="F115" s="4"/>
@@ -6492,14 +6530,18 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12"/>
-      <c r="B116" s="2"/>
+    <row r="116" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="6" t="s">
         <v>115</v>
       </c>
       <c r="F116" s="4"/>
@@ -6525,16 +6567,12 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="A117" s="12"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="6" t="s">
         <v>116</v>
       </c>
@@ -6561,11 +6599,11 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12"/>
+      <c r="A118" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="6" t="s">
         <v>117</v>
@@ -6593,12 +6631,12 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A119" s="12"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="E119" s="6" t="s">
         <v>118</v>
       </c>
@@ -6627,10 +6665,10 @@
     <row r="120" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="6" t="s">
         <v>119</v>
       </c>
@@ -6657,12 +6695,16 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="E121" s="6" t="s">
         <v>120</v>
       </c>
@@ -6689,17 +6731,13 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="A122" s="12"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="C122" s="2"/>
       <c r="D122" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F122" s="4"/>
@@ -6731,7 +6769,7 @@
       <c r="D123" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F123" s="4"/>
@@ -6756,13 +6794,13 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12"/>
+    <row r="124" customFormat="false" ht="76.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="6" t="s">
         <v>123</v>
       </c>
@@ -6788,12 +6826,16 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="76.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="B125" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="6" t="s">
         <v>124</v>
@@ -6821,17 +6863,13 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="6" t="s">
+      <c r="A126" s="12"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F126" s="4"/>
@@ -6856,14 +6894,14 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="12"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F127" s="4"/>
@@ -6891,10 +6929,10 @@
     <row r="128" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="12"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C128" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="6" t="s">
         <v>127</v>
       </c>
@@ -6922,10 +6960,10 @@
     </row>
     <row r="129" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="12"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="B129" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="6" t="s">
         <v>128</v>
@@ -7017,12 +7055,12 @@
       <c r="Z131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="A132" s="12"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="D132" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="E132" s="6" t="s">
         <v>131</v>
       </c>
@@ -7049,12 +7087,14 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="6" t="s">
         <v>132</v>
       </c>
@@ -7081,16 +7121,14 @@
       <c r="Z133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B134" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C134" s="2"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="6" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -7115,86 +7153,62 @@
       <c r="Z134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D135" s="2"/>
+      <c r="B135" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E135" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="n">
-        <v>2</v>
+      <c r="D136" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D137" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E137" s="15" t="s">
+      <c r="A137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
-        <v>1</v>
-      </c>
+    <row r="138" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="D138" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="38.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="n">
-        <v>2</v>
-      </c>
+    <row r="139" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C139" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E140" s="15" t="s">
+      <c r="B140" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7202,30 +7216,87 @@
       <c r="B141" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E141" s="15" t="s">
+      <c r="C141" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="C142" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E142" s="15" t="s">
+      <c r="D142" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="D143" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E143" s="15" t="s">
+      <c r="E143" s="6" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
